--- a/DrugLists.xlsx
+++ b/DrugLists.xlsx
@@ -3826,10 +3826,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E206"/>
+  <dimension ref="C3:F206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="D199" sqref="D199"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3839,7 +3839,7 @@
     <col min="5" max="5" width="62.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>205</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3858,8 +3858,11 @@
         <f>_xlfn.CONCAT("{ color: ",CHAR(34),CHAR(34),", drug:",CHAR(34),D4,CHAR(34),"},")</f>
         <v>{ color: "", drug:"Levothyroxine"},</v>
       </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3870,8 +3873,12 @@
         <f t="shared" ref="E5:E68" si="0">_xlfn.CONCAT("{ color: ",CHAR(34),CHAR(34),", drug:",CHAR(34),D5,CHAR(34),"},")</f>
         <v>{ color: "", drug:"Lisinopril"},</v>
       </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <f>F4+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
@@ -3882,8 +3889,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Atorvastatin"},</v>
       </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <f t="shared" ref="F6:F69" si="1">F5+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>132</v>
       </c>
@@ -3894,8 +3905,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Metformin"},</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>134</v>
       </c>
@@ -3906,8 +3921,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Amlodipine"},</v>
       </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
@@ -3918,8 +3937,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Metoprolol"},</v>
       </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
@@ -3930,8 +3953,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Omeprazole"},</v>
       </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
@@ -3942,8 +3969,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Simvastatin"},</v>
       </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>133</v>
       </c>
@@ -3954,8 +3985,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Losartan"},</v>
       </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
@@ -3966,8 +4001,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Albuterol"},</v>
       </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
@@ -3978,8 +4017,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Gabapentin"},</v>
       </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>8</v>
       </c>
@@ -3990,8 +4033,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Hydrochlorothiazide"},</v>
       </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C16" s="5" t="s">
         <v>137</v>
       </c>
@@ -4002,8 +4049,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Acetaminophen "},</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" s="4" t="s">
         <v>138</v>
       </c>
@@ -4014,8 +4065,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Hydrocodone"},</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>136</v>
       </c>
@@ -4026,8 +4081,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Sertraline "},</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>9</v>
       </c>
@@ -4038,8 +4097,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Furosemide"},</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>10</v>
       </c>
@@ -4050,8 +4113,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Fluticasone"},</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -4062,8 +4129,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Acetaminophen"},</v>
       </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -4074,8 +4145,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Amoxicillin"},</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>13</v>
       </c>
@@ -4086,8 +4161,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Alprazolam"},</v>
       </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -4098,8 +4177,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Atenolol"},</v>
       </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -4110,8 +4193,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Citalopram"},</v>
       </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -4122,8 +4209,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Insulin Glargine"},</v>
       </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>17</v>
       </c>
@@ -4134,8 +4225,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Montelukast"},</v>
       </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>139</v>
       </c>
@@ -4146,8 +4241,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Trazodone "},</v>
       </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>140</v>
       </c>
@@ -4158,8 +4257,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Pantoprazole "},</v>
       </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>141</v>
       </c>
@@ -4170,8 +4273,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Escitalopram "},</v>
       </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>142</v>
       </c>
@@ -4182,8 +4289,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Pravastatin "},</v>
       </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -4194,8 +4305,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Bupropion"},</v>
       </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>143</v>
       </c>
@@ -4206,8 +4321,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Fluoxetine "},</v>
       </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>19</v>
       </c>
@@ -4218,8 +4337,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Carvedilol"},</v>
       </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>20</v>
       </c>
@@ -4230,8 +4353,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Prednisone"},</v>
       </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>144</v>
       </c>
@@ -4242,8 +4369,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Tamsulosin "},</v>
       </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -4254,8 +4385,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Potassium"},</v>
       </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>145</v>
       </c>
@@ -4266,8 +4401,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Clopidogrel "},</v>
       </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>22</v>
       </c>
@@ -4278,8 +4417,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Ibuprofen"},</v>
       </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>23</v>
       </c>
@@ -4290,8 +4433,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Meloxicam"},</v>
       </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>146</v>
       </c>
@@ -4302,8 +4449,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Rosuvastatin "},</v>
       </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>24</v>
       </c>
@@ -4314,8 +4465,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Aspirin"},</v>
       </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
         <v>147</v>
       </c>
@@ -4326,8 +4481,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Tramadol "},</v>
       </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>148</v>
       </c>
@@ -4338,8 +4497,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Zolpidem "},</v>
       </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -4350,8 +4513,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Warfarin"},</v>
       </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>26</v>
       </c>
@@ -4362,8 +4529,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Clonazepam"},</v>
       </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>149</v>
       </c>
@@ -4374,8 +4545,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Propranolol "},</v>
       </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>27</v>
       </c>
@@ -4386,8 +4561,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Glipizide"},</v>
       </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>150</v>
       </c>
@@ -4398,8 +4577,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Dextroamphetamine"},</v>
       </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>151</v>
       </c>
@@ -4410,8 +4593,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Amphetamine"},</v>
       </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>28</v>
       </c>
@@ -4422,8 +4609,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Cyclobenzaprine"},</v>
       </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>29</v>
       </c>
@@ -4434,8 +4625,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Methylphenidate"},</v>
       </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>30</v>
       </c>
@@ -4446,8 +4641,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Duloxetine"},</v>
       </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>31</v>
       </c>
@@ -4458,8 +4657,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Azithromycin"},</v>
       </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>32</v>
       </c>
@@ -4470,8 +4673,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Ranitidine"},</v>
       </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>152</v>
       </c>
@@ -4482,8 +4689,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Venlafaxine "},</v>
       </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>33</v>
       </c>
@@ -4494,8 +4705,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Allopurinol"},</v>
       </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
         <v>8</v>
       </c>
@@ -4506,8 +4721,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Hydrochlorothiazide"},</v>
       </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
         <v>1</v>
       </c>
@@ -4518,8 +4737,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Lisinopril"},</v>
       </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>34</v>
       </c>
@@ -4530,8 +4753,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Oxycodone"},</v>
       </c>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>153</v>
       </c>
@@ -4542,8 +4769,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Ergocalciferol"},</v>
       </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>35</v>
       </c>
@@ -4554,8 +4785,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Lorazepam"},</v>
       </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
         <v>36</v>
       </c>
@@ -4566,8 +4801,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Estradiol"},</v>
       </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>202</v>
       </c>
@@ -4578,8 +4817,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Glimepiride"},</v>
       </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>38</v>
       </c>
@@ -4590,8 +4833,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Diltiazem"},</v>
       </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>203</v>
       </c>
@@ -4602,8 +4849,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Paroxetine"},</v>
       </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>40</v>
       </c>
@@ -4614,8 +4865,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Loratadine"},</v>
       </c>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
         <v>204</v>
       </c>
@@ -4626,8 +4881,12 @@
         <f t="shared" si="0"/>
         <v>{ color: "", drug:"Spironolactone"},</v>
       </c>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
         <v>155</v>
       </c>
@@ -4635,11 +4894,15 @@
         <v>44</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" ref="E69:E132" si="1">_xlfn.CONCAT("{ color: ",CHAR(34),CHAR(34),", drug:",CHAR(34),D69,CHAR(34),"},")</f>
+        <f t="shared" ref="E69:E132" si="2">_xlfn.CONCAT("{ color: ",CHAR(34),CHAR(34),", drug:",CHAR(34),D69,CHAR(34),"},")</f>
         <v>{ color: "", drug:"Fenofibrate"},</v>
       </c>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
         <v>41</v>
       </c>
@@ -4647,11 +4910,15 @@
         <v>45</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Naproxen"},</v>
       </c>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F70">
+        <f t="shared" ref="F70:F133" si="3">F69+1</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
         <v>42</v>
       </c>
@@ -4659,11 +4926,15 @@
         <v>46</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Esomeprazole"},</v>
       </c>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F71">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
         <v>43</v>
       </c>
@@ -4671,11 +4942,15 @@
         <v>47</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Lamotrigine"},</v>
       </c>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F72">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
         <v>44</v>
       </c>
@@ -4683,11 +4958,15 @@
         <v>48</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Metronidazole"},</v>
       </c>
-    </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F73">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>45</v>
       </c>
@@ -4695,11 +4974,15 @@
         <v>49</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Lovastatin"},</v>
       </c>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F74">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>46</v>
       </c>
@@ -4707,11 +4990,15 @@
         <v>156</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Alendronate"},</v>
       </c>
-    </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F75">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
         <v>47</v>
       </c>
@@ -4719,11 +5006,15 @@
         <v>157</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Cetirizine"},</v>
       </c>
-    </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F76">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>48</v>
       </c>
@@ -4731,11 +5022,15 @@
         <v>50</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Finasteride"},</v>
       </c>
-    </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F77">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
         <v>49</v>
       </c>
@@ -4743,11 +5038,15 @@
         <v>51</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Clonidine"},</v>
       </c>
-    </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F78">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
         <v>156</v>
       </c>
@@ -4755,11 +5054,15 @@
         <v>52</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Diclofenac"},</v>
       </c>
-    </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F79">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
         <v>157</v>
       </c>
@@ -4767,11 +5070,15 @@
         <v>53</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Latanoprost"},</v>
       </c>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F80">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
         <v>50</v>
       </c>
@@ -4779,11 +5086,15 @@
         <v>161</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Sitagliptin"},</v>
       </c>
-    </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F81">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
         <v>51</v>
       </c>
@@ -4791,11 +5102,15 @@
         <v>54</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Pregabalin"},</v>
       </c>
-    </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F82">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
         <v>158</v>
       </c>
@@ -4803,11 +5118,15 @@
         <v>162</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Regular Insulin"},</v>
       </c>
-    </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F83">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
         <v>52</v>
       </c>
@@ -4815,11 +5134,15 @@
         <v>55</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Topiramate"},</v>
       </c>
-    </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F84">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
         <v>53</v>
       </c>
@@ -4827,11 +5150,15 @@
         <v>163</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Quetiapine"},</v>
       </c>
-    </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F85">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
         <v>159</v>
       </c>
@@ -4839,11 +5166,15 @@
         <v>56</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Insulin Aspart"},</v>
       </c>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F86">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
         <v>160</v>
       </c>
@@ -4851,11 +5182,15 @@
         <v>57</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Amitriptyline"},</v>
       </c>
-    </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F87">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
         <v>161</v>
       </c>
@@ -4863,11 +5198,15 @@
         <v>58</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Levetiracetam"},</v>
       </c>
-    </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F88">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
         <v>54</v>
       </c>
@@ -4875,11 +5214,15 @@
         <v>164</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Buspirone"},</v>
       </c>
-    </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F89">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
         <v>162</v>
       </c>
@@ -4887,11 +5230,15 @@
         <v>59</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Ondansetron"},</v>
       </c>
-    </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F90">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
         <v>55</v>
       </c>
@@ -4899,11 +5246,15 @@
         <v>60</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Valsartan"},</v>
       </c>
-    </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F91">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
         <v>163</v>
       </c>
@@ -4911,11 +5262,15 @@
         <v>61</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Ferrous Sulfate"},</v>
       </c>
-    </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F92">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
         <v>56</v>
       </c>
@@ -4923,11 +5278,15 @@
         <v>165</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Enalapril"},</v>
       </c>
-    </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F93">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
         <v>57</v>
       </c>
@@ -4935,11 +5294,15 @@
         <v>62</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Tiotropium"},</v>
       </c>
-    </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F94">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
         <v>58</v>
       </c>
@@ -4947,11 +5310,15 @@
         <v>63</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Folic Acid"},</v>
       </c>
-    </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F95">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
         <v>164</v>
       </c>
@@ -4959,11 +5326,15 @@
         <v>64</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Hydroxyzine"},</v>
       </c>
-    </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F96">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
         <v>59</v>
       </c>
@@ -4971,11 +5342,15 @@
         <v>166</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Donepezil"},</v>
       </c>
-    </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F97">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
         <v>60</v>
       </c>
@@ -4983,11 +5358,15 @@
         <v>167</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Lisdexamfetamine"},</v>
       </c>
-    </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F98">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
         <v>61</v>
       </c>
@@ -4995,11 +5374,15 @@
         <v>65</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Insulin Lispro"},</v>
       </c>
-    </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F99">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
         <v>165</v>
       </c>
@@ -5007,11 +5390,15 @@
         <v>66</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Isosorbide Mononitrate"},</v>
       </c>
-    </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F100">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
         <v>62</v>
       </c>
@@ -5019,11 +5406,15 @@
         <v>67</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Ciprofloxacin"},</v>
       </c>
-    </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F101">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
         <v>63</v>
       </c>
@@ -5031,11 +5422,15 @@
         <v>169</v>
       </c>
       <c r="E102" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Benazepril"},</v>
       </c>
-    </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F102">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
         <v>64</v>
       </c>
@@ -5043,11 +5438,15 @@
         <v>68</v>
       </c>
       <c r="E103" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Rivaroxaban"},</v>
       </c>
-    </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F103">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
         <v>166</v>
       </c>
@@ -5055,11 +5454,15 @@
         <v>69</v>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Cephalexin"},</v>
       </c>
-    </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F104">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
         <v>167</v>
       </c>
@@ -5067,11 +5470,15 @@
         <v>70</v>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Oxybutynin"},</v>
       </c>
-    </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F105">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
         <v>65</v>
       </c>
@@ -5079,11 +5486,15 @@
         <v>71</v>
       </c>
       <c r="E106" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Doxycycline"},</v>
       </c>
-    </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F106">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="107" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
         <v>66</v>
       </c>
@@ -5091,11 +5502,15 @@
         <v>172</v>
       </c>
       <c r="E107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Ropinirole "},</v>
       </c>
-    </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F107">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
         <v>67</v>
       </c>
@@ -5103,11 +5518,15 @@
         <v>72</v>
       </c>
       <c r="E108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Diazepam"},</v>
       </c>
-    </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F108">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
         <v>168</v>
       </c>
@@ -5115,11 +5534,15 @@
         <v>138</v>
       </c>
       <c r="E109" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Hydrocodone"},</v>
       </c>
-    </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F109">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
         <v>169</v>
       </c>
@@ -5127,11 +5550,15 @@
         <v>73</v>
       </c>
       <c r="E110" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Sumatriptan"},</v>
       </c>
-    </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F110">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>68</v>
       </c>
@@ -5139,11 +5566,15 @@
         <v>74</v>
       </c>
       <c r="E111" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Pioglitazone"},</v>
       </c>
-    </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F111">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
         <v>170</v>
       </c>
@@ -5151,11 +5582,15 @@
         <v>75</v>
       </c>
       <c r="E112" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Tizanidine"},</v>
       </c>
-    </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F112">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
         <v>69</v>
       </c>
@@ -5163,11 +5598,15 @@
         <v>76</v>
       </c>
       <c r="E113" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Thyroid"},</v>
       </c>
-    </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F113">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
         <v>70</v>
       </c>
@@ -5175,11 +5614,15 @@
         <v>77</v>
       </c>
       <c r="E114" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Celecoxib"},</v>
       </c>
-    </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F114">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
         <v>171</v>
       </c>
@@ -5187,11 +5630,15 @@
         <v>78</v>
       </c>
       <c r="E115" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Insulin Detemir"},</v>
       </c>
-    </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F115">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
         <v>71</v>
       </c>
@@ -5199,11 +5646,15 @@
         <v>79</v>
       </c>
       <c r="E116" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Triamcinolone"},</v>
       </c>
-    </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F116">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
         <v>172</v>
       </c>
@@ -5211,11 +5662,15 @@
         <v>80</v>
       </c>
       <c r="E117" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Apixaban"},</v>
       </c>
-    </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F117">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
         <v>72</v>
       </c>
@@ -5223,11 +5678,15 @@
         <v>81</v>
       </c>
       <c r="E118" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Baclofen"},</v>
       </c>
-    </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F118">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
         <v>138</v>
       </c>
@@ -5235,11 +5694,15 @@
         <v>82</v>
       </c>
       <c r="E119" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Famotidine"},</v>
       </c>
-    </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F119">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
         <v>173</v>
       </c>
@@ -5247,11 +5710,15 @@
         <v>175</v>
       </c>
       <c r="E120" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Nebivolol"},</v>
       </c>
-    </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F120">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
         <v>73</v>
       </c>
@@ -5259,11 +5726,15 @@
         <v>83</v>
       </c>
       <c r="E121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Docusate"},</v>
       </c>
-    </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F121">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
         <v>74</v>
       </c>
@@ -5271,11 +5742,15 @@
         <v>84</v>
       </c>
       <c r="E122" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Mirtazapine"},</v>
       </c>
-    </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F122">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
         <v>174</v>
       </c>
@@ -5283,11 +5758,15 @@
         <v>176</v>
       </c>
       <c r="E123" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Divalproex"},</v>
       </c>
-    </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F123">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
         <v>75</v>
       </c>
@@ -5295,11 +5774,15 @@
         <v>177</v>
       </c>
       <c r="E124" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Verapamil"},</v>
       </c>
-    </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F124">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
         <v>76</v>
       </c>
@@ -5307,11 +5790,15 @@
         <v>85</v>
       </c>
       <c r="E125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Aripiprazole"},</v>
       </c>
-    </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F125">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
         <v>77</v>
       </c>
@@ -5319,11 +5806,15 @@
         <v>86</v>
       </c>
       <c r="E126" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Gemfibrozil"},</v>
       </c>
-    </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F126">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C127" t="s">
         <v>78</v>
       </c>
@@ -5331,11 +5822,15 @@
         <v>180</v>
       </c>
       <c r="E127" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Hydroxychloroquine"},</v>
       </c>
-    </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F127">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C128" t="s">
         <v>79</v>
       </c>
@@ -5343,11 +5838,15 @@
         <v>87</v>
       </c>
       <c r="E128" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Prednisolone"},</v>
       </c>
-    </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F128">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
         <v>80</v>
       </c>
@@ -5355,11 +5854,15 @@
         <v>88</v>
       </c>
       <c r="E129" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Cyanocobalamin"},</v>
       </c>
-    </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F129">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
         <v>81</v>
       </c>
@@ -5367,11 +5870,15 @@
         <v>181</v>
       </c>
       <c r="E130" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Hydralazine"},</v>
       </c>
-    </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F130">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
         <v>82</v>
       </c>
@@ -5379,11 +5886,15 @@
         <v>89</v>
       </c>
       <c r="E131" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Omega-3-acid Ethyl Esters"},</v>
       </c>
-    </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F131">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
         <v>175</v>
       </c>
@@ -5391,11 +5902,15 @@
         <v>90</v>
       </c>
       <c r="E132" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{ color: "", drug:"Lansoprazole"},</v>
       </c>
-    </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F132">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
         <v>83</v>
       </c>
@@ -5403,11 +5918,15 @@
         <v>91</v>
       </c>
       <c r="E133" t="str">
-        <f t="shared" ref="E133:E186" si="2">_xlfn.CONCAT("{ color: ",CHAR(34),CHAR(34),", drug:",CHAR(34),D133,CHAR(34),"},")</f>
+        <f t="shared" ref="E133:E186" si="4">_xlfn.CONCAT("{ color: ",CHAR(34),CHAR(34),", drug:",CHAR(34),D133,CHAR(34),"},")</f>
         <v>{ color: "", drug:"Timolol"},</v>
       </c>
-    </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F133">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
         <v>84</v>
       </c>
@@ -5415,11 +5934,15 @@
         <v>92</v>
       </c>
       <c r="E134" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Hydrocortisone"},</v>
       </c>
-    </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F134">
+        <f t="shared" ref="F134:F186" si="5">F133+1</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
         <v>176</v>
       </c>
@@ -5427,11 +5950,15 @@
         <v>93</v>
       </c>
       <c r="E135" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Ezetimibe"},</v>
       </c>
-    </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F135">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
         <v>177</v>
       </c>
@@ -5439,11 +5966,15 @@
         <v>94</v>
       </c>
       <c r="E136" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Digoxin"},</v>
       </c>
-    </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F136">
+        <f t="shared" si="5"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
         <v>85</v>
       </c>
@@ -5451,11 +5982,15 @@
         <v>95</v>
       </c>
       <c r="E137" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Testosterone"},</v>
       </c>
-    </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F137">
+        <f t="shared" si="5"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
         <v>86</v>
       </c>
@@ -5463,11 +5998,15 @@
         <v>183</v>
       </c>
       <c r="E138" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Memantine"},</v>
       </c>
-    </row>
-    <row r="139" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F138">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
         <v>178</v>
       </c>
@@ -5475,11 +6014,15 @@
         <v>96</v>
       </c>
       <c r="E139" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Methylprednisolone"},</v>
       </c>
-    </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F139">
+        <f t="shared" si="5"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
         <v>179</v>
       </c>
@@ -5487,11 +6030,15 @@
         <v>97</v>
       </c>
       <c r="E140" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Estrogens, Conjugated"},</v>
       </c>
-    </row>
-    <row r="141" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F140">
+        <f t="shared" si="5"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
         <v>180</v>
       </c>
@@ -5499,11 +6046,15 @@
         <v>98</v>
       </c>
       <c r="E141" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Adalimumab"},</v>
       </c>
-    </row>
-    <row r="142" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F141">
+        <f t="shared" si="5"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
         <v>87</v>
       </c>
@@ -5511,11 +6062,15 @@
         <v>99</v>
       </c>
       <c r="E142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Clindamycin"},</v>
       </c>
-    </row>
-    <row r="143" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F142">
+        <f t="shared" si="5"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C143" t="s">
         <v>88</v>
       </c>
@@ -5523,11 +6078,15 @@
         <v>100</v>
       </c>
       <c r="E143" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Methotrexate"},</v>
       </c>
-    </row>
-    <row r="144" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F143">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
         <v>181</v>
       </c>
@@ -5535,11 +6094,15 @@
         <v>101</v>
       </c>
       <c r="E144" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Ramipril"},</v>
       </c>
-    </row>
-    <row r="145" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F144">
+        <f t="shared" si="5"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C145" t="s">
         <v>89</v>
       </c>
@@ -5547,11 +6110,15 @@
         <v>102</v>
       </c>
       <c r="E145" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Nifedipine"},</v>
       </c>
-    </row>
-    <row r="146" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F145">
+        <f t="shared" si="5"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
         <v>182</v>
       </c>
@@ -5559,11 +6126,15 @@
         <v>184</v>
       </c>
       <c r="E146" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Methylcellulose"},</v>
       </c>
-    </row>
-    <row r="147" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F146">
+        <f t="shared" si="5"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="147" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C147" t="s">
         <v>90</v>
       </c>
@@ -5571,11 +6142,15 @@
         <v>103</v>
       </c>
       <c r="E147" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Guanfacine"},</v>
       </c>
-    </row>
-    <row r="148" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F147">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="148" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
         <v>91</v>
       </c>
@@ -5583,11 +6158,15 @@
         <v>185</v>
       </c>
       <c r="E148" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Doxazosin"},</v>
       </c>
-    </row>
-    <row r="149" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F148">
+        <f t="shared" si="5"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
         <v>92</v>
       </c>
@@ -5595,11 +6174,15 @@
         <v>104</v>
       </c>
       <c r="E149" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Morphine"},</v>
       </c>
-    </row>
-    <row r="150" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F149">
+        <f t="shared" si="5"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
         <v>93</v>
       </c>
@@ -5607,11 +6190,15 @@
         <v>105</v>
       </c>
       <c r="E150" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Risperidone"},</v>
       </c>
-    </row>
-    <row r="151" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F150">
+        <f t="shared" si="5"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C151" t="s">
         <v>94</v>
       </c>
@@ -5619,11 +6206,15 @@
         <v>186</v>
       </c>
       <c r="E151" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Promethazine"},</v>
       </c>
-    </row>
-    <row r="152" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F151">
+        <f t="shared" si="5"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
         <v>95</v>
       </c>
@@ -5631,11 +6222,15 @@
         <v>106</v>
       </c>
       <c r="E152" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Levofloxacin"},</v>
       </c>
-    </row>
-    <row r="153" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F152">
+        <f t="shared" si="5"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C153" t="s">
         <v>183</v>
       </c>
@@ -5643,11 +6238,15 @@
         <v>187</v>
       </c>
       <c r="E153" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Meclizine"},</v>
       </c>
-    </row>
-    <row r="154" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F153">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
         <v>96</v>
       </c>
@@ -5655,11 +6254,15 @@
         <v>188</v>
       </c>
       <c r="E154" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Levocetirizine"},</v>
       </c>
-    </row>
-    <row r="155" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F154">
+        <f t="shared" si="5"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C155" t="s">
         <v>97</v>
       </c>
@@ -5667,11 +6270,15 @@
         <v>189</v>
       </c>
       <c r="E155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Olmesartan"},</v>
       </c>
-    </row>
-    <row r="156" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F155">
+        <f t="shared" si="5"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
         <v>98</v>
       </c>
@@ -5679,11 +6286,15 @@
         <v>107</v>
       </c>
       <c r="E156" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Mometasone"},</v>
       </c>
-    </row>
-    <row r="157" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F156">
+        <f t="shared" si="5"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C157" t="s">
         <v>99</v>
       </c>
@@ -5691,11 +6302,15 @@
         <v>192</v>
       </c>
       <c r="E157" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Brimonidine"},</v>
       </c>
-    </row>
-    <row r="158" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F157">
+        <f t="shared" si="5"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="158" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C158" t="s">
         <v>100</v>
       </c>
@@ -5703,11 +6318,15 @@
         <v>108</v>
       </c>
       <c r="E158" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Valacyclovir"},</v>
       </c>
-    </row>
-    <row r="159" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F158">
+        <f t="shared" si="5"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="159" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C159" t="s">
         <v>101</v>
       </c>
@@ -5715,11 +6334,15 @@
         <v>109</v>
       </c>
       <c r="E159" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Terazosin"},</v>
       </c>
-    </row>
-    <row r="160" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F159">
+        <f t="shared" si="5"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="160" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C160" t="s">
         <v>102</v>
       </c>
@@ -5727,11 +6350,15 @@
         <v>193</v>
       </c>
       <c r="E160" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Solifenacin"},</v>
       </c>
-    </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F160">
+        <f t="shared" si="5"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
         <v>184</v>
       </c>
@@ -5739,11 +6366,15 @@
         <v>110</v>
       </c>
       <c r="E161" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Irbesartan"},</v>
       </c>
-    </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F161">
+        <f t="shared" si="5"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C162" t="s">
         <v>103</v>
       </c>
@@ -5751,11 +6382,15 @@
         <v>111</v>
       </c>
       <c r="E162" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Glyburide"},</v>
       </c>
-    </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F162">
+        <f t="shared" si="5"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="163" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
         <v>185</v>
       </c>
@@ -5763,11 +6398,15 @@
         <v>112</v>
       </c>
       <c r="E163" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Fluconazole"},</v>
       </c>
-    </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F163">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="164" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
         <v>104</v>
       </c>
@@ -5775,11 +6414,15 @@
         <v>113</v>
       </c>
       <c r="E164" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Chlorthalidone"},</v>
       </c>
-    </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F164">
+        <f t="shared" si="5"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="165" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C165" t="s">
         <v>105</v>
       </c>
@@ -5787,11 +6430,15 @@
         <v>114</v>
       </c>
       <c r="E165" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Beclomethasone"},</v>
       </c>
-    </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F165">
+        <f t="shared" si="5"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="166" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C166" t="s">
         <v>186</v>
       </c>
@@ -5799,11 +6446,15 @@
         <v>115</v>
       </c>
       <c r="E166" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Polyethylene Glycol 3350"},</v>
       </c>
-    </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F166">
+        <f t="shared" si="5"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="167" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C167" t="s">
         <v>106</v>
       </c>
@@ -5811,11 +6462,15 @@
         <v>195</v>
       </c>
       <c r="E167" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Dicyclomine"},</v>
       </c>
-    </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F167">
+        <f t="shared" si="5"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="168" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C168" t="s">
         <v>187</v>
       </c>
@@ -5823,11 +6478,15 @@
         <v>116</v>
       </c>
       <c r="E168" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Magnesium"},</v>
       </c>
-    </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F168">
+        <f t="shared" si="5"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="169" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C169" t="s">
         <v>188</v>
       </c>
@@ -5835,11 +6494,15 @@
         <v>117</v>
       </c>
       <c r="E169" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Nitroglycerin"},</v>
       </c>
-    </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F169">
+        <f t="shared" si="5"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="170" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C170" t="s">
         <v>189</v>
       </c>
@@ -5847,11 +6510,15 @@
         <v>118</v>
       </c>
       <c r="E170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Carisoprodol"},</v>
       </c>
-    </row>
-    <row r="171" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F170">
+        <f t="shared" si="5"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="171" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C171" t="s">
         <v>107</v>
       </c>
@@ -5859,11 +6526,15 @@
         <v>119</v>
       </c>
       <c r="E171" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Ipratropium"},</v>
       </c>
-    </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F171">
+        <f t="shared" si="5"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="172" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C172" t="s">
         <v>191</v>
       </c>
@@ -5871,11 +6542,15 @@
         <v>197</v>
       </c>
       <c r="E172" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Clobetasol"},</v>
       </c>
-    </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F172">
+        <f t="shared" si="5"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="173" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C173" t="s">
         <v>192</v>
       </c>
@@ -5883,11 +6558,15 @@
         <v>120</v>
       </c>
       <c r="E173" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Temazepam"},</v>
       </c>
-    </row>
-    <row r="174" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F173">
+        <f t="shared" si="5"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="174" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C174" t="s">
         <v>108</v>
       </c>
@@ -5895,11 +6574,15 @@
         <v>121</v>
       </c>
       <c r="E174" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Nitrofurantoin"},</v>
       </c>
-    </row>
-    <row r="175" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F174">
+        <f t="shared" si="5"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="175" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C175" t="s">
         <v>109</v>
       </c>
@@ -5907,11 +6590,15 @@
         <v>122</v>
       </c>
       <c r="E175" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Methocarbamol"},</v>
       </c>
-    </row>
-    <row r="176" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F175">
+        <f t="shared" si="5"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="176" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C176" t="s">
         <v>193</v>
       </c>
@@ -5919,11 +6606,15 @@
         <v>123</v>
       </c>
       <c r="E176" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Liraglutide"},</v>
       </c>
-    </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F176">
+        <f t="shared" si="5"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="177" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C177" t="s">
         <v>110</v>
       </c>
@@ -5931,11 +6622,15 @@
         <v>124</v>
       </c>
       <c r="E177" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Progesterone"},</v>
       </c>
-    </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F177">
+        <f t="shared" si="5"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="178" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C178" t="s">
         <v>111</v>
       </c>
@@ -5943,11 +6638,15 @@
         <v>125</v>
       </c>
       <c r="E178" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Dexlansoprazole"},</v>
       </c>
-    </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F178">
+        <f t="shared" si="5"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="179" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C179" t="s">
         <v>112</v>
       </c>
@@ -5955,11 +6654,15 @@
         <v>199</v>
       </c>
       <c r="E179" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Nortriptyline"},</v>
       </c>
-    </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F179">
+        <f t="shared" si="5"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="180" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C180" t="s">
         <v>113</v>
       </c>
@@ -5967,11 +6670,15 @@
         <v>126</v>
       </c>
       <c r="E180" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Benzonatate"},</v>
       </c>
-    </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F180">
+        <f t="shared" si="5"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="181" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C181" t="s">
         <v>194</v>
       </c>
@@ -5979,11 +6686,15 @@
         <v>127</v>
       </c>
       <c r="E181" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Canagliflozin"},</v>
       </c>
-    </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F181">
+        <f t="shared" si="5"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="182" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C182" t="s">
         <v>114</v>
       </c>
@@ -5991,11 +6702,15 @@
         <v>128</v>
       </c>
       <c r="E182" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Acyclovir"},</v>
       </c>
-    </row>
-    <row r="183" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F182">
+        <f t="shared" si="5"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="183" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C183" t="s">
         <v>115</v>
       </c>
@@ -6003,11 +6718,15 @@
         <v>129</v>
       </c>
       <c r="E183" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Linagliptin"},</v>
       </c>
-    </row>
-    <row r="184" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F183">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="184" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C184" t="s">
         <v>195</v>
       </c>
@@ -6015,11 +6734,15 @@
         <v>130</v>
       </c>
       <c r="E184" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Carbamazepine"},</v>
       </c>
-    </row>
-    <row r="185" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F184">
+        <f t="shared" si="5"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="185" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C185" t="s">
         <v>116</v>
       </c>
@@ -6027,11 +6750,15 @@
         <v>200</v>
       </c>
       <c r="E185" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Amiodarone"},</v>
       </c>
-    </row>
-    <row r="186" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F185">
+        <f t="shared" si="5"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="186" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C186" t="s">
         <v>117</v>
       </c>
@@ -6039,36 +6766,40 @@
         <v>131</v>
       </c>
       <c r="E186" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{ color: "", drug:"Mupirocin"},</v>
       </c>
-    </row>
-    <row r="187" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F186">
+        <f t="shared" si="5"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="187" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C187" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="188" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C188" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="189" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C189" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="190" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C190" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="191" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C191" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="192" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C192" t="s">
         <v>121</v>
       </c>
